--- a/blogAPI_TestCase_0921.xlsx
+++ b/blogAPI_TestCase_0921.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\workspace\blog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAF2059-AAEE-49CA-8817-95C63C567FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1275" yWindow="960" windowWidth="26655" windowHeight="14175" xr2:uid="{BA40EA46-9839-42A4-8E9A-B2DC5D7C3C49}"/>
+    <workbookView xWindow="1275" yWindow="960" windowWidth="26655" windowHeight="14175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -126,10 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>- 검색어(query), 횟수(cnt), 순위(rank) 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>서버 재시작</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -316,26 +311,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>- 블로그 검색 API 수행 후 해당 검색어의 cnt가 증가되고 순위(rank)가 변경되는지 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 블로그 검색 API 호출 시 cnt + 1, rnk 상승</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>- 서버를 재기동 하고 나서 재 호출 시 동일한 데이터가 조회되는지 확인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>- 서버 재기동 후 동일한 데이터 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 검색어(query), 횟수(cnt), 순위(rank) 확인
+- 상위 10개 데이터 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 블로그 검색 API에서 특정 검색어(query)로 호출 시 해당 쿼리의 cnt가 1 증가하고, rnk가 상승
+- 11개 부터 인기 검색어 목록에서 제외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 블로그 검색 API 수행 후 해당 검색어의 cnt가 증가되고 순위(rank)가 변경되는지 확인
+'- 상위 10개의 데이터만 조회되는지 확인하기 위해 10개 이상 다른 검색어로 조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -462,13 +464,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -482,15 +493,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -805,300 +807,303 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{937E4518-FF0D-45DB-AB6C-45E7331C7C43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="13.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="53.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="31" style="2" customWidth="1"/>
-    <col min="6" max="6" width="34" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="66.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>40</v>
+      <c r="G3" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="94.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="4"/>
+    <row r="4" spans="1:8" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="12"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>40</v>
+      <c r="G4" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="54" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="4"/>
+    <row r="5" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="12"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>40</v>
+      <c r="F5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="81" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="4"/>
+    <row r="6" spans="1:8" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="12"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>40</v>
-      </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="81" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="4"/>
+    <row r="7" spans="1:8" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="12"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>40</v>
-      </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="189" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="1:8" ht="135" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
+      <c r="B8" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>40</v>
+      <c r="G8" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="4"/>
+    <row r="9" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
+      <c r="B10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>40</v>
+      <c r="G11" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>40</v>
+      <c r="G12" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
+      <c r="B14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="D14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>40</v>
+      <c r="G14" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="H14" s="3"/>
     </row>
